--- a/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
+++ b/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>ID</t>
   </si>
@@ -55,30 +55,6 @@
     <t>done</t>
   </si>
   <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>100h</t>
-  </si>
-  <si>
-    <t>200h</t>
-  </si>
-  <si>
-    <t>400h</t>
-  </si>
-  <si>
-    <t>16h</t>
-  </si>
-  <si>
-    <t>450h</t>
-  </si>
-  <si>
-    <t>40h</t>
-  </si>
-  <si>
-    <t>180h</t>
-  </si>
-  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -94,12 +70,6 @@
     <t>Effort Actual</t>
   </si>
   <si>
-    <t>Admit new patient</t>
-  </si>
-  <si>
-    <t>a new patient makes contact on reference from Dr. Boehm. After creating a new patient record, the medical history...</t>
-  </si>
-  <si>
     <t>Effort Plan Original</t>
   </si>
   <si>
@@ -109,15 +79,6 @@
     <t>0h</t>
   </si>
   <si>
-    <t>50h</t>
-  </si>
-  <si>
-    <t>350h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
     <t>Workspace Setup</t>
   </si>
   <si>
@@ -163,9 +124,6 @@
     <t>Decoratorpattern</t>
   </si>
   <si>
-    <t>Umsetzen tech Vorgabe</t>
-  </si>
-  <si>
     <t>Architektur an Vaadin anpassen</t>
   </si>
   <si>
@@ -176,6 +134,60 @@
   </si>
   <si>
     <t>Development VM pre Installed DevEnv</t>
+  </si>
+  <si>
+    <t>Projekt Setup</t>
+  </si>
+  <si>
+    <t>Navigiere zu Patientenadresse</t>
+  </si>
+  <si>
+    <t>Zeit erfassen</t>
+  </si>
+  <si>
+    <t>Spesen erfassen</t>
+  </si>
+  <si>
+    <t>Zeit bearbeiten</t>
+  </si>
+  <si>
+    <t>Termin verwalten</t>
+  </si>
+  <si>
+    <t>Patienteninformationen anzeigen</t>
+  </si>
+  <si>
+    <t>Terminerinnerung durchführen</t>
+  </si>
+  <si>
+    <t>Server/Client Synchronisieren (obsolet)</t>
+  </si>
+  <si>
+    <t>Entwicklungsvm, Projekt Setup</t>
+  </si>
+  <si>
+    <t>10h</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>Informieren</t>
+  </si>
+  <si>
+    <t>Bearbeite ToDo-Liste</t>
+  </si>
+  <si>
+    <t>Initialmodell erstellen</t>
+  </si>
+  <si>
+    <t>Pascal B., Swen</t>
+  </si>
+  <si>
+    <t>Vaadin kennenlernen, GUI Prototype</t>
+  </si>
+  <si>
+    <t>Pascal vO., Roger</t>
   </si>
 </sst>
 </file>
@@ -225,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -237,6 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -541,16 +554,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
@@ -564,7 +577,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -573,102 +586,250 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
+      <c r="E4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -679,10 +840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +853,7 @@
     <col min="3" max="3" width="39.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="9.140625" customWidth="1"/>
@@ -705,7 +866,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -714,22 +875,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -737,22 +898,22 @@
     </row>
     <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1.1000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -772,22 +933,22 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1.2</v>
+        <v>0.02</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -807,22 +968,22 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1.3</v>
+        <v>0.03</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -834,30 +995,30 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1.4</v>
+        <v>0.04</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -877,26 +1038,32 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -906,26 +1073,32 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1.6</v>
+        <v>0.06</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
       </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
       <c r="J7">
         <v>0</v>
       </c>
@@ -935,51 +1108,57 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1.7</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1.8</v>
+        <v>0.08</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -995,6 +1174,76 @@
       </c>
       <c r="K9" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0.09</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
+++ b/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoveriasoft\scholdev\ch.bfh.bti7081.s2013.green2\ch.bfh.bti7081.s2013.green\doc\scrum\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="4635" activeTab="1"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -184,10 +179,10 @@
     <t>Pascal B., Swen</t>
   </si>
   <si>
-    <t>Vaadin kennenlernen, GUI Prototype</t>
-  </si>
-  <si>
     <t>Pascal vO., Roger</t>
+  </si>
+  <si>
+    <t>Vaadin kennenlernen, GUI Prototype, GUI Events</t>
   </si>
 </sst>
 </file>
@@ -310,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -843,21 +838,21 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1219,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1228,7 +1223,7 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1237,10 +1232,10 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
         <v>9</v>

--- a/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
+++ b/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="4635" activeTab="1"/>
   </bookViews>
@@ -10,12 +15,12 @@
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
   <si>
     <t>ID</t>
   </si>
@@ -179,10 +184,52 @@
     <t>Pascal B., Swen</t>
   </si>
   <si>
+    <t>Vaadin kennenlernen, GUI Prototype</t>
+  </si>
+  <si>
     <t>Pascal vO., Roger</t>
   </si>
   <si>
-    <t>Vaadin kennenlernen, GUI Prototype, GUI Events</t>
+    <t>Termin Wechseln</t>
+  </si>
+  <si>
+    <t>Namen anzeigen</t>
+  </si>
+  <si>
+    <t>Roger</t>
+  </si>
+  <si>
+    <t>GUI Design</t>
+  </si>
+  <si>
+    <t>Erweitern des bestehden Models</t>
+  </si>
+  <si>
+    <t>An Weiterentwicklung GUI anpassen</t>
+  </si>
+  <si>
+    <t>Wartung</t>
+  </si>
+  <si>
+    <t>Anzeige korrekturen vornehmen</t>
+  </si>
+  <si>
+    <t>Pascal vO</t>
+  </si>
+  <si>
+    <t>Classnames English</t>
+  </si>
+  <si>
+    <t>Pascal's</t>
+  </si>
+  <si>
+    <t>unassigned</t>
+  </si>
+  <si>
+    <t>DefinitionOfDone/CodingConventions</t>
+  </si>
+  <si>
+    <t>Coding Conventions rückwirkend einhalten</t>
   </si>
 </sst>
 </file>
@@ -305,7 +352,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,7 +387,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -755,7 +802,7 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -778,7 +825,7 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,6 +872,29 @@
       </c>
       <c r="H11" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -835,24 +905,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1028,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1063,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1098,7 +1168,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1214,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1223,7 +1293,7 @@
         <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1232,13 +1302,281 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>6.01</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>7.01</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7.02</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6.02</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10.01</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4.01</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5.01</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>10.02</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
+++ b/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\apps\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="4635"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -352,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,7 +382,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -598,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -907,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1340,10 +1335,10 @@
         <v>2</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1375,10 +1370,10 @@
         <v>2</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1410,10 +1405,10 @@
         <v>2</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1474,10 +1469,10 @@
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1561,7 +1556,7 @@
         <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -1570,13 +1565,13 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
+++ b/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="4635" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -206,9 +206,6 @@
     <t>Wartung</t>
   </si>
   <si>
-    <t>Anzeige korrekturen vornehmen</t>
-  </si>
-  <si>
     <t>Pascal vO</t>
   </si>
   <si>
@@ -218,13 +215,16 @@
     <t>Pascal's</t>
   </si>
   <si>
-    <t>unassigned</t>
-  </si>
-  <si>
     <t>DefinitionOfDone/CodingConventions</t>
   </si>
   <si>
     <t>Coding Conventions rückwirkend einhalten</t>
+  </si>
+  <si>
+    <t>Anzeige Korrekturen vornehmen</t>
+  </si>
+  <si>
+    <t>Roger, Pascal vO.</t>
   </si>
 </sst>
 </file>
@@ -593,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -902,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,7 +1358,7 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1419,13 +1419,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" t="s">
         <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1437,10 +1437,10 @@
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1451,13 +1451,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
         <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1489,7 +1489,7 @@
         <v>36</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1501,10 +1501,10 @@
         <v>2</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1521,7 +1521,7 @@
         <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
@@ -1533,10 +1533,10 @@
         <v>2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1547,10 +1547,10 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
         <v>36</v>

--- a/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
+++ b/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoveriasoft\scholdev\ch.bfh.bti7081.s2013.green\ch.bfh.bti7081.s2013.green\doc\scrum\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12885" windowHeight="4635" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="94">
   <si>
     <t>ID</t>
   </si>
@@ -41,9 +46,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>waiting</t>
-  </si>
-  <si>
     <t>work in progress</t>
   </si>
   <si>
@@ -152,9 +154,6 @@
     <t>Patienteninformationen anzeigen</t>
   </si>
   <si>
-    <t>Terminerinnerung durchführen</t>
-  </si>
-  <si>
     <t>Server/Client Synchronisieren (obsolet)</t>
   </si>
   <si>
@@ -225,6 +224,84 @@
   </si>
   <si>
     <t>Roger, Pascal vO.</t>
+  </si>
+  <si>
+    <t>Findbus Issues behben</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Logging/Exceptionhandling</t>
+  </si>
+  <si>
+    <t>Logger einführen / GUI Notifications</t>
+  </si>
+  <si>
+    <t>Documentation / UML Diagrams</t>
+  </si>
+  <si>
+    <t>Auf dem neusten Stand halten</t>
+  </si>
+  <si>
+    <t>DB Implementierung für Navigation</t>
+  </si>
+  <si>
+    <t>Vaadin Implementierung Google Maps</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Minimalvariante</t>
+  </si>
+  <si>
+    <t>7h</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>Login (Service)</t>
+  </si>
+  <si>
+    <t>Login (GUI Implementation)</t>
+  </si>
+  <si>
+    <t>Bearbeite TodoListe (Service)</t>
+  </si>
+  <si>
+    <t>Bearbeite TodoListe (GUI)</t>
+  </si>
+  <si>
+    <t>Mangels Zeit gestrichen…</t>
+  </si>
+  <si>
+    <t>Terminerinnerung durchführen (obsolet)</t>
+  </si>
+  <si>
+    <t>Nicht möglich in der Zeit</t>
+  </si>
+  <si>
+    <t>Zeit erfassen (DB Teil)</t>
+  </si>
+  <si>
+    <t>Zeit erfassen GUI Maske</t>
+  </si>
+  <si>
+    <t>Zeit bearbeiten GUI (Service Teil von Story 3)</t>
   </si>
 </sst>
 </file>
@@ -347,7 +424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -382,7 +459,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -591,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -623,13 +700,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>17</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -640,25 +717,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -666,23 +743,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -690,19 +769,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -713,19 +792,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -736,22 +815,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -759,19 +838,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -782,19 +861,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -805,19 +884,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -828,22 +907,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -851,22 +933,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -874,21 +959,44 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
       </c>
       <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -900,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -915,9 +1023,9 @@
     <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -926,37 +1034,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.01</v>
       </c>
@@ -964,16 +1072,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -988,7 +1096,7 @@
         <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -999,16 +1107,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1023,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1034,16 +1142,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1058,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1069,16 +1177,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1090,10 +1198,10 @@
         <v>4</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1104,16 +1212,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -1125,10 +1233,10 @@
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1139,16 +1247,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
@@ -1160,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1174,16 +1282,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1198,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1209,16 +1317,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1230,10 +1338,10 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1244,16 +1352,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1265,10 +1373,10 @@
         <v>1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1279,16 +1387,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1303,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1314,16 +1422,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
         <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1338,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1349,16 +1457,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1373,7 +1481,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1384,16 +1492,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1408,7 +1516,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1419,13 +1527,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1440,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1451,13 +1559,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1472,7 +1580,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1483,13 +1591,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1504,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1515,13 +1623,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
@@ -1536,42 +1644,450 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>11.01</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>11.02</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>10.02</v>
       </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
         <v>7</v>
       </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>4</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19" t="s">
-        <v>9</v>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>4</v>
+      </c>
+      <c r="J22">
+        <v>3</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1.01</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1.02</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H27">
+        <v>2</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>3.01</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3.02</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5.01</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
+++ b/ch.bfh.bti7081.s2013.green/doc/scrum/scrum_xls.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inoveriasoft\scholdev\ch.bfh.bti7081.s2013.green\ch.bfh.bti7081.s2013.green\doc\scrum\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -46,9 +41,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>work in progress</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -302,6 +294,9 @@
   </si>
   <si>
     <t>Zeit bearbeiten GUI (Service Teil von Story 3)</t>
+  </si>
+  <si>
+    <t>6h</t>
   </si>
 </sst>
 </file>
@@ -424,7 +419,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -459,7 +454,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -670,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>2</v>
@@ -700,13 +695,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>4</v>
@@ -717,25 +712,25 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -743,25 +738,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -769,19 +764,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
         <v>8</v>
@@ -792,19 +787,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
         <v>8</v>
@@ -815,22 +810,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -838,19 +833,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>8</v>
@@ -861,22 +856,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,22 +879,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -907,25 +902,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -933,25 +928,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -959,19 +954,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" t="s">
         <v>8</v>
@@ -982,22 +977,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" t="s">
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1010,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,31 +1029,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>4</v>
@@ -1072,16 +1067,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1096,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="K2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1107,16 +1102,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -1131,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1142,16 +1137,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1166,7 +1161,7 @@
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1177,16 +1172,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1201,7 +1196,7 @@
         <v>3</v>
       </c>
       <c r="K5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1212,16 +1207,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -1236,7 +1231,7 @@
         <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1247,16 +1242,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="s">
         <v>7</v>
@@ -1271,7 +1266,7 @@
         <v>2</v>
       </c>
       <c r="K7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1282,16 +1277,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1306,7 +1301,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -1317,16 +1312,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -1341,7 +1336,7 @@
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -1352,16 +1347,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -1376,7 +1371,7 @@
         <v>3</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1387,16 +1382,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" t="s">
         <v>52</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>53</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -1411,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -1422,16 +1417,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" t="s">
-        <v>56</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -1446,7 +1441,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1457,16 +1452,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -1481,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1492,16 +1487,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
         <v>58</v>
       </c>
-      <c r="D14" t="s">
-        <v>59</v>
-      </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -1516,7 +1511,7 @@
         <v>4</v>
       </c>
       <c r="K14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1527,13 +1522,13 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1548,7 +1543,7 @@
         <v>3</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1559,13 +1554,13 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
         <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1580,7 +1575,7 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1591,13 +1586,13 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
         <v>6</v>
@@ -1612,7 +1607,7 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1623,13 +1618,13 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
         <v>7</v>
@@ -1644,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1655,13 +1650,13 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1676,7 +1671,7 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1687,13 +1682,13 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1708,7 +1703,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1719,16 +1714,16 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
-        <v>65</v>
-      </c>
       <c r="E21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G21" t="s">
         <v>7</v>
@@ -1743,7 +1738,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1754,13 +1749,13 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="E22" t="s">
-        <v>69</v>
-      </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -1786,16 +1781,16 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="D23" t="s">
-        <v>71</v>
-      </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -1807,7 +1802,7 @@
         <v>2</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" t="s">
         <v>8</v>
@@ -1821,16 +1816,16 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" t="s">
         <v>72</v>
       </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>7</v>
@@ -1842,7 +1837,7 @@
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" t="s">
         <v>8</v>
@@ -1856,13 +1851,13 @@
         <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s">
         <v>7</v>
@@ -1877,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -1888,16 +1883,16 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G26" t="s">
         <v>7</v>
@@ -1912,7 +1907,7 @@
         <v>1</v>
       </c>
       <c r="K26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1923,16 +1918,16 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s">
         <v>7</v>
@@ -1944,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" t="s">
         <v>8</v>
@@ -1958,16 +1953,16 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G28" t="s">
         <v>7</v>
@@ -1979,7 +1974,7 @@
         <v>3</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K28" t="s">
         <v>8</v>
@@ -1993,16 +1988,16 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s">
         <v>7</v>
@@ -2014,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29" t="s">
         <v>8</v>
@@ -2028,16 +2023,16 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>7</v>
@@ -2049,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30" t="s">
         <v>8</v>
@@ -2063,16 +2058,16 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
         <v>7</v>
@@ -2084,7 +2079,7 @@
         <v>2</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="s">
         <v>8</v>
